--- a/importer/old_prices.xlsx
+++ b/importer/old_prices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\website\epexstromtest\importer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68684335-8616-4C66-A3C9-5519548F265C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96273ED1-12DB-4DFF-BCD7-B9E2BA24066B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="45" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -2304,7 +2304,7 @@
   <dimension ref="A1:AU275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
